--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6248089229394658</v>
+        <v>-0.03972843564838335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2419967468351101</v>
+        <v>-0.0884385054446204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6374204442626976</v>
+        <v>-1.087144929704265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4810049972273862</v>
+        <v>-0.1642415882357695</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4152259826660156</v>
+        <v>1.150673031806946</v>
       </c>
       <c r="G2" t="n">
-        <v>1.038000345230103</v>
+        <v>1.13770854473114</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7943297624588013</v>
+        <v>0.2058674991130829</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9233320355415344</v>
+        <v>0.6991952061653137</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6796458137941677</v>
+        <v>0.4916056504106544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2245003581352012</v>
+        <v>0.3592414826205835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7040547323891483</v>
+        <v>-1.136531317309955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.51248902297035</v>
+        <v>0.2444502059770303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.354537695646286</v>
+        <v>0.5626426935195923</v>
       </c>
       <c r="G3" t="n">
-        <v>1.061959743499756</v>
+        <v>0.6697635054588318</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6483490467071533</v>
+        <v>0.2107387632131577</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8673195242881775</v>
+        <v>0.4537518322467804</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6827277932470401</v>
+        <v>0.499150704253348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2267274227716374</v>
+        <v>0.3660649567553653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7043908635371536</v>
+        <v>-1.07631835272905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5135915976730947</v>
+        <v>0.2553914064614908</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3511268496513367</v>
+        <v>0.5542925596237183</v>
       </c>
       <c r="G4" t="n">
-        <v>1.058909893035889</v>
+        <v>0.6626311540603638</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6476126909255981</v>
+        <v>0.204799622297287</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8653579354286194</v>
+        <v>0.4471809864044189</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6904826810645788</v>
+        <v>0.5773583985224029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2243040631487033</v>
+        <v>0.4437560720335975</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7133068357119983</v>
+        <v>-0.5521265489019009</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5177705996680685</v>
+        <v>0.3674935247027381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3425444960594177</v>
+        <v>0.4677397310733795</v>
       </c>
       <c r="G5" t="n">
-        <v>1.062228560447693</v>
+        <v>0.5814232230186462</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6280797719955444</v>
+        <v>0.1530954539775848</v>
       </c>
       <c r="I5" t="n">
-        <v>0.857923150062561</v>
+        <v>0.3798571228981018</v>
       </c>
     </row>
     <row r="6">
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6920244857336194</v>
+        <v>0.6209935765155035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2272865919346962</v>
+        <v>0.5197316178277978</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7094785828295725</v>
+        <v>-0.5304422286118082</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5167675210596394</v>
+        <v>0.4391759340247908</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3408381640911102</v>
+        <v>0.4194484353065491</v>
       </c>
       <c r="G6" t="n">
-        <v>1.058144092559814</v>
+        <v>0.5020085573196411</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6364666223526001</v>
+        <v>0.1509566009044647</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8597076535224915</v>
+        <v>0.3368076384067535</v>
       </c>
     </row>
     <row r="7">
@@ -637,59 +637,59 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6965997991327171</v>
+        <v>0.6372879415464328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2241925596054826</v>
+        <v>0.5159088158002698</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7088565772977985</v>
+        <v>-0.4418830706259695</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5151460608262315</v>
+        <v>0.4424980528110082</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3357746303081512</v>
+        <v>0.4014153480529785</v>
       </c>
       <c r="G7" t="n">
-        <v>1.062381148338318</v>
+        <v>0.5060043334960938</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6378293037414551</v>
+        <v>0.1422214955091476</v>
       </c>
       <c r="I7" t="n">
-        <v>0.862592339515686</v>
+        <v>0.3348125219345093</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_8</t>
+          <t>model_9_0_20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6966656406489187</v>
+        <v>0.6409602587791607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2047600314152018</v>
+        <v>0.4177508671379512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7035326261531567</v>
+        <v>-3.111388339061044</v>
       </c>
       <c r="E8" t="n">
-        <v>0.504142339189267</v>
+        <v>0.1457267476257968</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3357017338275909</v>
+        <v>0.3973512053489685</v>
       </c>
       <c r="G8" t="n">
-        <v>1.08899188041687</v>
+        <v>0.6086056232452393</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6494928598403931</v>
+        <v>0.4055306613445282</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8821689486503601</v>
+        <v>0.5130410194396973</v>
       </c>
     </row>
     <row r="9">
@@ -699,245 +699,245 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.697334970616867</v>
+        <v>0.6434646383184071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2171316394174673</v>
+        <v>0.5195434904942479</v>
       </c>
       <c r="D9" t="n">
-        <v>0.709655921090681</v>
+        <v>-0.6591275647140535</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5127323520098717</v>
+        <v>0.4290565676948064</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3349609971046448</v>
+        <v>0.3945796191692352</v>
       </c>
       <c r="G9" t="n">
-        <v>1.072050333023071</v>
+        <v>0.5022051334381104</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6360781192779541</v>
+        <v>0.1636496037244797</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8668865561485291</v>
+        <v>0.3428849279880524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_9</t>
+          <t>model_9_0_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6990821469937334</v>
+        <v>0.6439122794146472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2108976580859573</v>
+        <v>0.4465993961604744</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7003450683160171</v>
+        <v>-2.912075653107569</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5047964407708883</v>
+        <v>0.1877137103313175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3330273926258087</v>
+        <v>0.3940841853618622</v>
       </c>
       <c r="G10" t="n">
-        <v>1.080586910247803</v>
+        <v>0.5784511566162109</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6564760804176331</v>
+        <v>0.3858712315559387</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8810051679611206</v>
+        <v>0.4878254532814026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_7</t>
+          <t>model_9_0_8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7006347273133595</v>
+        <v>0.6481178669463624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219720587133702</v>
+        <v>0.5127434073537129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7104886586515606</v>
+        <v>-0.7476493134695508</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5142699698591663</v>
+        <v>0.415948943281196</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3313091397285461</v>
+        <v>0.3894298374652863</v>
       </c>
       <c r="G11" t="n">
-        <v>1.068504929542542</v>
+        <v>0.5093130469322205</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6342537403106689</v>
+        <v>0.1723810285329819</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8641510605812073</v>
+        <v>0.350756824016571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_10</t>
+          <t>model_9_0_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7026862860324419</v>
+        <v>0.6486544736355413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2160299244527</v>
+        <v>0.5118296422149399</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7008702585485083</v>
+        <v>-0.7490322683219819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5071918266236884</v>
+        <v>0.4150000634650024</v>
       </c>
       <c r="F12" t="n">
-        <v>0.329038679599762</v>
+        <v>0.3888359367847443</v>
       </c>
       <c r="G12" t="n">
-        <v>1.073558926582336</v>
+        <v>0.5102682113647461</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6553255319595337</v>
+        <v>0.1725174486637115</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8767436742782593</v>
+        <v>0.3513266742229462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_11</t>
+          <t>model_9_0_7</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7056856361069961</v>
+        <v>0.649101664982485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2215765093921671</v>
+        <v>0.5133655307318852</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6998183361915536</v>
+        <v>-0.6349814915156986</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5088428618300189</v>
+        <v>0.425230132291096</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3257192969322205</v>
+        <v>0.388341099023819</v>
       </c>
       <c r="G13" t="n">
-        <v>1.065963506698608</v>
+        <v>0.5086627602577209</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6576300859451294</v>
+        <v>0.1612679362297058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8738062977790833</v>
+        <v>0.3451829254627228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_12</t>
+          <t>model_9_0_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.711910637791787</v>
+        <v>0.6499361848832776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2299971216178729</v>
+        <v>0.5087765694462187</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7007454149172312</v>
+        <v>-0.7323641600880564</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5128114192587261</v>
+        <v>0.4134748081062696</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3188300132751465</v>
+        <v>0.3874174952507019</v>
       </c>
       <c r="G14" t="n">
-        <v>1.054432392120361</v>
+        <v>0.5134594440460205</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6555989980697632</v>
+        <v>0.1708733737468719</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8667458891868591</v>
+        <v>0.3522426784038544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_13</t>
+          <t>model_9_0_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7144111479545407</v>
+        <v>0.6500040131789804</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2333985543718515</v>
+        <v>0.4963241057621021</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7005653095535282</v>
+        <v>-0.7962722118566317</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5140931531014605</v>
+        <v>0.3970614867214067</v>
       </c>
       <c r="F15" t="n">
-        <v>0.316062718629837</v>
+        <v>0.3873424530029297</v>
       </c>
       <c r="G15" t="n">
-        <v>1.049774646759033</v>
+        <v>0.5264756083488464</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6559935808181763</v>
+        <v>0.1771769970655441</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8644657135009766</v>
+        <v>0.3620998561382294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_14</t>
+          <t>model_9_0_12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7172783130608212</v>
+        <v>0.6506829329192172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2383543298724669</v>
+        <v>0.4977609430705744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7003321636539814</v>
+        <v>-0.7772950870620619</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5159773512970359</v>
+        <v>0.3998523002398046</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3128896057605743</v>
+        <v>0.3865910172462463</v>
       </c>
       <c r="G16" t="n">
-        <v>1.042988181114197</v>
+        <v>0.5249737501144409</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6565043926239014</v>
+        <v>0.1753051728010178</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8611135482788086</v>
+        <v>0.3604238033294678</v>
       </c>
     </row>
     <row r="17">
@@ -947,307 +947,183 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7196944446744956</v>
+        <v>0.6511930075805161</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2419129814571463</v>
+        <v>0.5000649807737921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6999654437850784</v>
+        <v>-0.9625664473823559</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5172149101866751</v>
+        <v>0.3876559037358623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3102156519889832</v>
+        <v>0.3860265612602234</v>
       </c>
       <c r="G17" t="n">
-        <v>1.03811502456665</v>
+        <v>0.5225654244422913</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6573077440261841</v>
+        <v>0.1935795843601227</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8589118123054504</v>
+        <v>0.3677484393119812</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_16</t>
+          <t>model_9_0_14</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7222107201566109</v>
+        <v>0.6515866023183426</v>
       </c>
       <c r="C18" t="n">
-        <v>0.245081687190005</v>
+        <v>0.5018230888387345</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7004345555898752</v>
+        <v>-0.8022181248745075</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5187781052105367</v>
+        <v>0.4016691140632869</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3074308931827545</v>
+        <v>0.3855909705162048</v>
       </c>
       <c r="G18" t="n">
-        <v>1.033775806427002</v>
+        <v>0.5207276940345764</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6562800407409668</v>
+        <v>0.1777634620666504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8561307787895203</v>
+        <v>0.3593326807022095</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_17</t>
+          <t>model_9_0_13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7247412839085687</v>
+        <v>0.652192054289948</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2502140263276054</v>
+        <v>0.500512597537667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6998140351869206</v>
+        <v>-0.7175411598861254</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5205096661541926</v>
+        <v>0.4070061697830383</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3046302795410156</v>
+        <v>0.3849209249019623</v>
       </c>
       <c r="G19" t="n">
-        <v>1.026747703552246</v>
+        <v>0.5220974683761597</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6576394438743591</v>
+        <v>0.1694112718105316</v>
       </c>
       <c r="I19" t="n">
-        <v>0.853050172328949</v>
+        <v>0.3561274707317352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_18</t>
+          <t>model_9_0_16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.726944592582351</v>
+        <v>0.6596564326409486</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2529165008889416</v>
+        <v>0.4976843287336935</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7000226067935467</v>
+        <v>-0.7922410294400484</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5217319417290132</v>
+        <v>0.3986265298675639</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3021918833255768</v>
+        <v>0.3766600787639618</v>
       </c>
       <c r="G20" t="n">
-        <v>1.023046970367432</v>
+        <v>0.5250537991523743</v>
       </c>
       <c r="H20" t="n">
-        <v>0.657182514667511</v>
+        <v>0.1767793744802475</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8508756756782532</v>
+        <v>0.3611599504947662</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_19</t>
+          <t>model_9_0_18</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7292012661788876</v>
+        <v>0.6623172796094626</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2557476487597069</v>
+        <v>0.4934331081686266</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7005011615920185</v>
+        <v>-1.705002377921071</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5231630836393382</v>
+        <v>0.3241620398673376</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2996943891048431</v>
+        <v>0.3737152516841888</v>
       </c>
       <c r="G21" t="n">
-        <v>1.019170045852661</v>
+        <v>0.5294974446296692</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6561341285705566</v>
+        <v>0.2668104469776154</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8483295440673828</v>
+        <v>0.4058802127838135</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_0_20</t>
+          <t>model_9_0_17</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7314321987662543</v>
+        <v>0.6645767344346503</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2586926991938538</v>
+        <v>0.5101408537935153</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7010050502857184</v>
+        <v>-1.072930676856797</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5246551637857257</v>
+        <v>0.3884100335507084</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2972254157066345</v>
+        <v>0.3712146878242493</v>
       </c>
       <c r="G22" t="n">
-        <v>1.015137195587158</v>
+        <v>0.5120334625244141</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6550302505493164</v>
+        <v>0.204465463757515</v>
       </c>
       <c r="I22" t="n">
-        <v>0.845674991607666</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_9_0_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7334649111154206</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.261419032546081</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.7012500738016466</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5259081085491339</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2949757874011993</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.011403679847717</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.6544933915138245</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.8434459567070007</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_9_0_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.7352989465111877</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2629803991540253</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.7017898691629636</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5268572487373733</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.292946070432663</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.009265542030334</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.6533108949661255</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.8417572975158691</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_9_0_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.7374531872771395</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.2653421044896817</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.7026511872006905</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.528318747061884</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2905619442462921</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.006031513214111</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.6514239311218262</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.8391571640968323</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_9_0_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.7391782482928346</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2667735166281563</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.7031567766736699</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5291949551243911</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2886528372764587</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.004071354866028</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.6503162384033203</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.8375983238220215</v>
+        <v>0.367295503616333</v>
       </c>
     </row>
   </sheetData>
